--- a/Milestone3/Alternate Scheduling/Simulation_Throughputs_A1.xlsx
+++ b/Milestone3/Alternate Scheduling/Simulation_Throughputs_A1.xlsx
@@ -1,37 +1,69 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\PycharmProjects\SYSC4005AProject\Milestone3\Alternate Scheduling\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D57B11E-7D2B-444C-896A-0F3DEA145E7B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="3165" yWindow="2070" windowWidth="21615" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>Replica</t>
+  </si>
+  <si>
+    <t>Throughput(product/hour)</t>
+  </si>
+  <si>
+    <t>TE</t>
+  </si>
+  <si>
+    <t>Average:</t>
+  </si>
+  <si>
+    <t>Std:</t>
+  </si>
+  <si>
+    <t>CI:+-0.09220</t>
+  </si>
+  <si>
+    <t>PI:+-0.33451</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,10 +78,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -57,83 +97,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -421,196 +402,178 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Replica</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Throughput(product/hour)</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>TE</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
-        <v>5.663333333333333</v>
-      </c>
-      <c r="C2" t="n">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="n">
-        <v>5.973333333333334</v>
-      </c>
-      <c r="C3" t="n">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>5.6633333333333331</v>
+      </c>
+      <c r="C2">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>5.9733333333333336</v>
+      </c>
+      <c r="C3">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="n">
-        <v>5.806666666666667</v>
-      </c>
-      <c r="C4" t="n">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="B4">
+        <v>5.8066666666666666</v>
+      </c>
+      <c r="C4">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>5.58</v>
       </c>
-      <c r="C5" t="n">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="C5">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="n">
-        <v>5.843333333333334</v>
-      </c>
-      <c r="C6" t="n">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="B6">
+        <v>5.8433333333333337</v>
+      </c>
+      <c r="C6">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="n">
-        <v>5.876666666666667</v>
-      </c>
-      <c r="C7" t="n">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="B7">
+        <v>5.8766666666666669</v>
+      </c>
+      <c r="C7">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="n">
-        <v>5.806666666666667</v>
-      </c>
-      <c r="C8" t="n">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="B8">
+        <v>5.8066666666666666</v>
+      </c>
+      <c r="C8">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>5.75</v>
       </c>
-      <c r="C9" t="n">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="C9">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="n">
-        <v>5.623333333333333</v>
-      </c>
-      <c r="C10" t="n">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="B10">
+        <v>5.6233333333333331</v>
+      </c>
+      <c r="C10">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>5.97</v>
       </c>
-      <c r="C11" t="n">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Average:</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>5.789333333333333</v>
-      </c>
-      <c r="C12" t="n">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Std:</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>0.1290116273829612</v>
-      </c>
-      <c r="C13" t="n">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>CI:+-0.09220</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>5.69713198063176</v>
-      </c>
-      <c r="C14" t="n">
-        <v>5.881534686034907</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>PI:+-0.33451</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>5.454828176985624</v>
-      </c>
-      <c r="C15" t="n">
-        <v>6.123838489681042</v>
+      <c r="C11">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>5.7893333333333334</v>
+      </c>
+      <c r="C12">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>0.12901162738296121</v>
+      </c>
+      <c r="C13">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>5.6971319806317604</v>
+      </c>
+      <c r="C14">
+        <v>5.8815346860349074</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>5.4548281769856244</v>
+      </c>
+      <c r="C15">
+        <v>6.1238384896810416</v>
       </c>
     </row>
   </sheetData>

--- a/Milestone3/Alternate Scheduling/Simulation_Throughputs_A1.xlsx
+++ b/Milestone3/Alternate Scheduling/Simulation_Throughputs_A1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\PycharmProjects\SYSC4005AProject\Milestone3\Alternate Scheduling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D57B11E-7D2B-444C-896A-0F3DEA145E7B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F04B595-AB72-44EE-A026-C7A55513487F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3165" yWindow="2070" windowWidth="21615" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,10 +37,10 @@
     <t>Std:</t>
   </si>
   <si>
-    <t>CI:+-0.09220</t>
-  </si>
-  <si>
-    <t>PI:+-0.33451</t>
+    <t>CI:+-0.12210</t>
+  </si>
+  <si>
+    <t>PI:+-0.44298</t>
   </si>
 </sst>
 </file>
@@ -406,7 +406,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,7 +427,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>5.6633333333333331</v>
+        <v>5.5933333333333337</v>
       </c>
       <c r="C2">
         <v>18000</v>
@@ -438,7 +438,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>5.9733333333333336</v>
+        <v>5.8133333333333326</v>
       </c>
       <c r="C3">
         <v>18000</v>
@@ -449,7 +449,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>5.8066666666666666</v>
+        <v>5.9766666666666666</v>
       </c>
       <c r="C4">
         <v>18000</v>
@@ -460,7 +460,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>5.58</v>
+        <v>5.63</v>
       </c>
       <c r="C5">
         <v>18000</v>
@@ -471,7 +471,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>5.8433333333333337</v>
+        <v>5.8633333333333333</v>
       </c>
       <c r="C6">
         <v>18000</v>
@@ -482,7 +482,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>5.8766666666666669</v>
+        <v>5.9233333333333329</v>
       </c>
       <c r="C7">
         <v>18000</v>
@@ -493,7 +493,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>5.8066666666666666</v>
+        <v>5.7633333333333336</v>
       </c>
       <c r="C8">
         <v>18000</v>
@@ -504,7 +504,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>5.75</v>
+        <v>5.65</v>
       </c>
       <c r="C9">
         <v>18000</v>
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>5.6233333333333331</v>
+        <v>6.16</v>
       </c>
       <c r="C10">
         <v>18000</v>
@@ -526,7 +526,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>5.97</v>
+        <v>5.9666666666666668</v>
       </c>
       <c r="C11">
         <v>18000</v>
@@ -537,7 +537,7 @@
         <v>3</v>
       </c>
       <c r="B12">
-        <v>5.7893333333333334</v>
+        <v>5.8340000000000014</v>
       </c>
       <c r="C12">
         <v>18000</v>
@@ -548,7 +548,7 @@
         <v>4</v>
       </c>
       <c r="B13">
-        <v>0.12901162738296121</v>
+        <v>0.17084625967355679</v>
       </c>
       <c r="C13">
         <v>18000</v>
@@ -559,10 +559,10 @@
         <v>5</v>
       </c>
       <c r="B14">
-        <v>5.6971319806317604</v>
+        <v>5.7119004918746832</v>
       </c>
       <c r="C14">
-        <v>5.8815346860349074</v>
+        <v>5.9560995081253179</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -570,10 +570,10 @@
         <v>6</v>
       </c>
       <c r="B15">
-        <v>5.4548281769856244</v>
+        <v>5.3910247739462891</v>
       </c>
       <c r="C15">
-        <v>6.1238384896810416</v>
+        <v>6.2769752260537119</v>
       </c>
     </row>
   </sheetData>
